--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerzy\Desktop\Trading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E8A1A1-3C8E-422F-866A-B9E5B4428EF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAAB76A-A9AB-4AF2-A327-1BD8CFB53236}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28020" yWindow="-3975" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>test1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>das</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>asdqq</t>
   </si>
 </sst>
 </file>
@@ -348,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -361,15 +370,23 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
